--- a/nodes_source_analyses/energy/energy/energy_heat_flexibility_p2h_boiler_electricity.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_heat_flexibility_p2h_boiler_electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F45EFA1-178A-664E-BAEF-17F205DDC944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0DF4B1-C291-F04D-81FB-C193CFC3F8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="16500" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
   <si>
     <t>Source</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>Marlieke Verweij</t>
+  </si>
+  <si>
+    <t>max_consumption_price</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1696,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1907,18 +1910,10 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1939,10 +1934,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1985,7 +1976,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2013,6 +2003,15 @@
     <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="484">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3257,16 +3256,16 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="20"/>
+    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1">
@@ -3438,60 +3437,60 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="32"/>
+    <col min="1" max="2" width="3.5" style="32" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="32" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="191" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="206"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="193"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="207"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="207"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="196"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="210"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="212"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="199"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
@@ -3506,19 +3505,19 @@
       <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="157"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="160"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="152"/>
     </row>
     <row r="9" spans="1:11" s="24" customFormat="1">
       <c r="B9" s="22"/>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -3535,22 +3534,22 @@
       <c r="I9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="161"/>
+      <c r="J9" s="153"/>
     </row>
     <row r="10" spans="1:11" s="24" customFormat="1">
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="19"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
-      <c r="J10" s="163"/>
+      <c r="J10" s="155"/>
     </row>
     <row r="11" spans="1:11" s="24" customFormat="1" ht="17" thickBot="1">
-      <c r="B11" s="162"/>
-      <c r="C11" s="162" t="s">
+      <c r="B11" s="154"/>
+      <c r="C11" s="30" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="19"/>
@@ -3559,16 +3558,16 @@
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="163"/>
+      <c r="J11" s="155"/>
     </row>
     <row r="12" spans="1:11" ht="17" thickBot="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="147" t="s">
+      <c r="B12" s="154"/>
+      <c r="C12" s="138" t="s">
         <v>100</v>
       </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="164">
+      <c r="E12" s="156">
         <f>'Research data'!H7</f>
         <v>50</v>
       </c>
@@ -3577,22 +3576,22 @@
         <v>109</v>
       </c>
       <c r="H12" s="30"/>
-      <c r="I12" s="165" t="s">
+      <c r="I12" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="163"/>
+      <c r="J12" s="155"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="148" t="s">
+      <c r="B13" s="154"/>
+      <c r="C13" s="206" t="s">
         <v>133</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="184">
+      <c r="E13" s="172">
         <f>'Research data'!H8</f>
         <v>0.995</v>
       </c>
@@ -3601,22 +3600,22 @@
         <v>48</v>
       </c>
       <c r="H13" s="30"/>
-      <c r="I13" s="165" t="s">
+      <c r="I13" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="J13" s="163"/>
+      <c r="J13" s="155"/>
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="96"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="149" t="s">
+      <c r="B14" s="147"/>
+      <c r="C14" s="130" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="183">
+      <c r="E14" s="171">
         <f>'Research data'!H9</f>
         <v>50.251256281407038</v>
       </c>
@@ -3625,161 +3624,161 @@
         <v>98</v>
       </c>
       <c r="H14" s="94"/>
-      <c r="I14" s="165" t="s">
+      <c r="I14" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="166"/>
+      <c r="J14" s="158"/>
       <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="96"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="150" t="s">
+      <c r="B15" s="147"/>
+      <c r="C15" s="117" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="164">
+      <c r="E15" s="156">
         <f>'Research data'!H11</f>
         <v>2190</v>
       </c>
       <c r="F15" s="94"/>
       <c r="G15" s="94"/>
       <c r="H15" s="94"/>
-      <c r="I15" s="167" t="s">
+      <c r="I15" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="166"/>
+      <c r="J15" s="158"/>
       <c r="K15" s="33"/>
     </row>
     <row r="16" spans="1:11" ht="17" thickBot="1">
-      <c r="B16" s="151"/>
-      <c r="C16" s="151" t="s">
+      <c r="B16" s="147"/>
+      <c r="C16" s="94" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="164">
+      <c r="E16" s="156">
         <f>'Research data'!H10</f>
         <v>0.99</v>
       </c>
       <c r="F16" s="94"/>
       <c r="G16" s="94"/>
       <c r="H16" s="94"/>
-      <c r="I16" s="167" t="s">
+      <c r="I16" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="166"/>
+      <c r="J16" s="158"/>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1">
-      <c r="B17" s="151"/>
-      <c r="C17" s="151" t="s">
+      <c r="B17" s="147"/>
+      <c r="C17" s="94" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="168">
+      <c r="E17" s="160">
         <v>0</v>
       </c>
       <c r="F17" s="94"/>
       <c r="G17" s="94"/>
       <c r="H17" s="94"/>
-      <c r="I17" s="167" t="s">
+      <c r="I17" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="166"/>
-    </row>
-    <row r="18" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
-      <c r="B18" s="198"/>
-      <c r="C18" s="156" t="s">
+      <c r="J17" s="158"/>
+    </row>
+    <row r="18" spans="1:10" s="185" customFormat="1" ht="17" thickBot="1">
+      <c r="B18" s="186"/>
+      <c r="C18" s="207" t="s">
         <v>138</v>
       </c>
       <c r="D18" s="21"/>
-      <c r="E18" s="199">
+      <c r="E18" s="187">
         <f>'Research data'!H15</f>
         <v>50</v>
       </c>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201" t="str">
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="189" t="str">
         <f>'Research data'!N15</f>
         <v>This simulates instantaneous use</v>
       </c>
-      <c r="J18" s="202"/>
-    </row>
-    <row r="19" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
-      <c r="B19" s="198"/>
-      <c r="C19" s="156" t="s">
+      <c r="J18" s="190"/>
+    </row>
+    <row r="19" spans="1:10" s="185" customFormat="1" ht="17" thickBot="1">
+      <c r="B19" s="186"/>
+      <c r="C19" s="207" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="21"/>
-      <c r="E19" s="199">
+      <c r="E19" s="187">
         <f>'Research data'!H16</f>
         <v>0</v>
       </c>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="201" t="str">
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="189" t="str">
         <f>'Research data'!N16</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J19" s="202"/>
-    </row>
-    <row r="20" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
-      <c r="B20" s="198"/>
-      <c r="C20" s="156" t="s">
+      <c r="J19" s="190"/>
+    </row>
+    <row r="20" spans="1:10" s="185" customFormat="1" ht="17" thickBot="1">
+      <c r="B20" s="186"/>
+      <c r="C20" s="207" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="21"/>
-      <c r="E20" s="199">
+      <c r="E20" s="187">
         <f>'Research data'!H17</f>
         <v>0</v>
       </c>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="201" t="str">
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="189" t="str">
         <f>'Research data'!N17</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J20" s="202"/>
-    </row>
-    <row r="21" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
-      <c r="B21" s="198"/>
-      <c r="C21" s="156" t="s">
+      <c r="J20" s="190"/>
+    </row>
+    <row r="21" spans="1:10" s="185" customFormat="1" ht="17" thickBot="1">
+      <c r="B21" s="186"/>
+      <c r="C21" s="207" t="s">
         <v>142</v>
       </c>
       <c r="D21" s="21"/>
-      <c r="E21" s="199">
+      <c r="E21" s="187">
         <f>'Research data'!H18</f>
         <v>0</v>
       </c>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="201" t="str">
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="189" t="str">
         <f>'Research data'!N18</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J21" s="202"/>
+      <c r="J21" s="190"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
-      <c r="J22" s="170"/>
+      <c r="J22" s="162"/>
     </row>
     <row r="23" spans="1:10" ht="17" thickBot="1">
-      <c r="B23" s="152"/>
-      <c r="C23" s="162" t="s">
+      <c r="B23" s="148"/>
+      <c r="C23" s="30" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="34"/>
@@ -3788,17 +3787,17 @@
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
-      <c r="J23" s="170"/>
+      <c r="J23" s="162"/>
     </row>
     <row r="24" spans="1:10" ht="17" thickBot="1">
-      <c r="B24" s="152"/>
-      <c r="C24" s="152" t="s">
+      <c r="B24" s="148"/>
+      <c r="C24" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="164">
+      <c r="E24" s="156">
         <f>'Research data'!H24</f>
         <v>3000000</v>
       </c>
@@ -3807,20 +3806,20 @@
         <v>6</v>
       </c>
       <c r="H24" s="34"/>
-      <c r="I24" s="171" t="s">
+      <c r="I24" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="J24" s="170"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B25" s="152"/>
-      <c r="C25" s="152" t="s">
+      <c r="B25" s="148"/>
+      <c r="C25" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="164">
+      <c r="E25" s="156">
         <f>'Research data'!H25</f>
         <v>50000</v>
       </c>
@@ -3829,20 +3828,20 @@
         <v>92</v>
       </c>
       <c r="H25" s="34"/>
-      <c r="I25" s="171" t="s">
+      <c r="I25" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="170"/>
+      <c r="J25" s="162"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1">
-      <c r="B26" s="172"/>
-      <c r="C26" s="153" t="s">
+      <c r="B26" s="164"/>
+      <c r="C26" s="119" t="s">
         <v>86</v>
       </c>
       <c r="D26" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="164">
+      <c r="E26" s="156">
         <f>'Research data'!H26</f>
         <v>25</v>
       </c>
@@ -3851,18 +3850,18 @@
         <v>81</v>
       </c>
       <c r="H26" s="116"/>
-      <c r="I26" s="171" t="s">
+      <c r="I26" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="173"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1">
-      <c r="B27" s="172"/>
-      <c r="C27" s="153" t="s">
+      <c r="B27" s="164"/>
+      <c r="C27" s="119" t="s">
         <v>84</v>
       </c>
       <c r="D27" s="115"/>
-      <c r="E27" s="164">
+      <c r="E27" s="156">
         <f>'Research data'!H27</f>
         <v>0</v>
       </c>
@@ -3871,18 +3870,18 @@
         <v>88</v>
       </c>
       <c r="H27" s="116"/>
-      <c r="I27" s="174" t="s">
+      <c r="I27" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="173"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1">
-      <c r="B28" s="172"/>
-      <c r="C28" s="153" t="s">
+      <c r="B28" s="164"/>
+      <c r="C28" s="119" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="115"/>
-      <c r="E28" s="164">
+      <c r="E28" s="156">
         <f>'Research data'!H28</f>
         <v>0</v>
       </c>
@@ -3891,18 +3890,18 @@
         <v>89</v>
       </c>
       <c r="H28" s="116"/>
-      <c r="I28" s="175" t="s">
+      <c r="I28" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="J28" s="173"/>
+      <c r="J28" s="165"/>
     </row>
     <row r="29" spans="1:10" ht="17" thickBot="1">
-      <c r="B29" s="172"/>
-      <c r="C29" s="154" t="s">
+      <c r="B29" s="164"/>
+      <c r="C29" s="208" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="115"/>
-      <c r="E29" s="164">
+      <c r="E29" s="156">
         <f>'Research data'!H29</f>
         <v>0</v>
       </c>
@@ -3911,18 +3910,18 @@
         <v>90</v>
       </c>
       <c r="H29" s="116"/>
-      <c r="I29" s="175" t="s">
+      <c r="I29" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="J29" s="173"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" ht="17" thickBot="1">
-      <c r="B30" s="172"/>
-      <c r="C30" s="153" t="s">
+      <c r="B30" s="164"/>
+      <c r="C30" s="119" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="115"/>
-      <c r="E30" s="164">
+      <c r="E30" s="156">
         <f>'Research data'!H30</f>
         <v>0</v>
       </c>
@@ -3931,21 +3930,21 @@
         <v>91</v>
       </c>
       <c r="H30" s="116"/>
-      <c r="I30" s="174" t="s">
+      <c r="I30" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="J30" s="173"/>
+      <c r="J30" s="165"/>
     </row>
     <row r="31" spans="1:10" ht="17" thickBot="1">
       <c r="A31" s="96"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="151" t="s">
+      <c r="B31" s="147"/>
+      <c r="C31" s="94" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="168">
+      <c r="E31" s="160">
         <v>0.04</v>
       </c>
       <c r="F31" s="94"/>
@@ -3953,254 +3952,229 @@
         <v>62</v>
       </c>
       <c r="H31" s="94"/>
-      <c r="I31" s="203" t="s">
+      <c r="I31" s="202" t="s">
         <v>147</v>
       </c>
-      <c r="J31" s="166"/>
+      <c r="J31" s="158"/>
     </row>
     <row r="32" spans="1:10" ht="17" thickBot="1">
       <c r="A32" s="96"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="151" t="s">
+      <c r="B32" s="147"/>
+      <c r="C32" s="94" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="168">
+      <c r="E32" s="160">
         <v>0</v>
       </c>
       <c r="F32" s="94"/>
       <c r="G32" s="94"/>
       <c r="H32" s="94"/>
-      <c r="I32" s="167" t="s">
+      <c r="I32" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="166"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="J32" s="158"/>
+    </row>
+    <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="96"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="200" t="s">
+        <v>150</v>
+      </c>
       <c r="D33" s="21"/>
-      <c r="E33" s="169"/>
+      <c r="E33" s="160">
+        <v>19</v>
+      </c>
       <c r="F33" s="94"/>
       <c r="G33" s="94"/>
       <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="166"/>
-    </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1">
+      <c r="I33" s="201" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="158"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="96"/>
-      <c r="B34" s="151"/>
-      <c r="C34" s="162" t="s">
-        <v>5</v>
-      </c>
+      <c r="B34" s="147"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="21"/>
-      <c r="E34" s="169"/>
+      <c r="E34" s="161"/>
       <c r="F34" s="94"/>
-      <c r="G34" s="34"/>
+      <c r="G34" s="94"/>
       <c r="H34" s="94"/>
       <c r="I34" s="94"/>
-      <c r="J34" s="166"/>
+      <c r="J34" s="158"/>
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="A35" s="96"/>
-      <c r="B35" s="151"/>
-      <c r="C35" s="151" t="s">
+      <c r="B35" s="147"/>
+      <c r="C35" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="158"/>
+    </row>
+    <row r="36" spans="1:10" ht="17" thickBot="1">
+      <c r="A36" s="96"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D36" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="168">
+      <c r="E36" s="160">
         <f>'Research data'!H34</f>
         <v>15</v>
       </c>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94" t="s">
+      <c r="F36" s="94"/>
+      <c r="G36" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="94"/>
-      <c r="I35" s="171" t="s">
+      <c r="H36" s="94"/>
+      <c r="I36" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="J35" s="166"/>
-    </row>
-    <row r="36" spans="1:10" ht="17" thickBot="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="151" t="s">
+      <c r="J36" s="158"/>
+    </row>
+    <row r="37" spans="1:10" ht="17" thickBot="1">
+      <c r="A37" s="96"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D37" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="168">
+      <c r="E37" s="160">
         <f>'Research data'!H35</f>
         <v>0</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94" t="s">
+      <c r="F37" s="94"/>
+      <c r="G37" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="94"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="166"/>
-    </row>
-    <row r="37" spans="1:10" ht="17" thickBot="1">
-      <c r="A37" s="96"/>
-      <c r="B37" s="151"/>
-      <c r="C37" s="151" t="s">
+      <c r="H37" s="94"/>
+      <c r="I37" s="168"/>
+      <c r="J37" s="158"/>
+    </row>
+    <row r="38" spans="1:10" ht="17" thickBot="1">
+      <c r="A38" s="96"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D38" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="177">
+      <c r="E38" s="169">
         <f>'Research data'!H36</f>
         <v>0</v>
       </c>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94" t="s">
+      <c r="F38" s="94"/>
+      <c r="G38" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="H37" s="94"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="166"/>
-    </row>
-    <row r="38" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A38" s="99"/>
-      <c r="B38" s="151"/>
-      <c r="C38" s="151" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="168">
-        <v>0</v>
-      </c>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
       <c r="H38" s="94"/>
-      <c r="I38" s="167" t="s">
-        <v>122</v>
-      </c>
-      <c r="J38" s="166"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A39" s="99"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="156" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="168">
+      <c r="B39" s="147"/>
+      <c r="C39" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="160">
         <v>0</v>
       </c>
       <c r="F39" s="94"/>
       <c r="G39" s="94"/>
       <c r="H39" s="94"/>
-      <c r="I39" s="167" t="s">
+      <c r="I39" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="J39" s="166"/>
+      <c r="J39" s="158"/>
     </row>
     <row r="40" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A40" s="99"/>
-      <c r="B40" s="151"/>
-      <c r="C40" s="156" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="176">
+      <c r="B40" s="147"/>
+      <c r="C40" s="207" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="160">
         <v>0</v>
       </c>
       <c r="F40" s="94"/>
       <c r="G40" s="94"/>
       <c r="H40" s="94"/>
-      <c r="I40" s="167" t="s">
+      <c r="I40" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="J40" s="166"/>
-    </row>
-    <row r="41" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A41" s="99"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="156" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="176">
-        <v>0</v>
-      </c>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="167" t="s">
-        <v>122</v>
-      </c>
-      <c r="J41" s="166"/>
-    </row>
-    <row r="42" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A42" s="99"/>
-      <c r="B42" s="151"/>
-      <c r="C42" s="156" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="176">
-        <v>0</v>
-      </c>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="167" t="s">
-        <v>122</v>
-      </c>
-      <c r="J42" s="166"/>
-    </row>
-    <row r="43" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A43" s="99"/>
-      <c r="B43" s="151"/>
-      <c r="C43" s="156" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="176">
-        <v>0</v>
-      </c>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="167" t="s">
-        <v>122</v>
-      </c>
-      <c r="J43" s="166"/>
-    </row>
-    <row r="44" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A44" s="99"/>
-      <c r="B44" s="182"/>
-      <c r="C44" s="179" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="180"/>
-      <c r="E44" s="176">
-        <v>0</v>
-      </c>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="167" t="s">
-        <v>122</v>
-      </c>
-      <c r="J44" s="181"/>
+      <c r="J40" s="158"/>
+    </row>
+    <row r="41" spans="1:10" ht="17" thickBot="1">
+      <c r="A41" s="96"/>
+      <c r="B41" s="203"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
+      <c r="J41" s="205"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="96"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="146"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="96"/>
       <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
+      <c r="C45" s="145"/>
       <c r="D45" s="96"/>
       <c r="E45" s="96"/>
       <c r="F45" s="96"/>
@@ -4212,7 +4186,7 @@
     <row r="46" spans="1:10">
       <c r="A46" s="96"/>
       <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
+      <c r="C46" s="145"/>
       <c r="D46" s="96"/>
       <c r="E46" s="96"/>
       <c r="F46" s="96"/>
@@ -4236,7 +4210,8 @@
     <row r="48" spans="1:10">
       <c r="A48" s="96"/>
       <c r="B48" s="96"/>
-      <c r="C48" s="146"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="96"/>
       <c r="E48" s="96"/>
       <c r="F48" s="96"/>
       <c r="G48" s="96"/>
@@ -4244,90 +4219,54 @@
       <c r="I48" s="96"/>
       <c r="J48" s="96"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:3">
       <c r="A49" s="96"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="C49" s="146"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="96"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="96"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="96"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="96"/>
+      <c r="C50" s="146"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="146"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" s="146"/>
+    </row>
+    <row r="53" spans="1:3">
       <c r="C53" s="146"/>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="96"/>
+    <row r="54" spans="1:3">
       <c r="C54" s="146"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:3">
       <c r="C55" s="146"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:3">
       <c r="C56" s="146"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:3">
       <c r="C57" s="146"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:3">
       <c r="C58" s="146"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:3">
       <c r="C59" s="146"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:3">
       <c r="C60" s="146"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:3">
       <c r="C61" s="146"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:3">
       <c r="C62" s="146"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:3">
       <c r="C63" s="146"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:3">
       <c r="C64" s="146"/>
     </row>
     <row r="65" spans="3:3">
@@ -4386,18 +4325,6 @@
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="146"/>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="146"/>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="146"/>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="146"/>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4419,26 +4346,26 @@
       <selection activeCell="A43" sqref="A43:XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="35" customWidth="1"/>
     <col min="2" max="2" width="3" style="35" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="35" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="35" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="35" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="35" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="35" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="35" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="35" customWidth="1"/>
-    <col min="13" max="13" width="2.42578125" style="35" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="35" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="35" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="35" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="35" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" style="35" customWidth="1"/>
     <col min="15" max="15" width="11" style="35" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" style="35" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" style="35" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="35"/>
+    <col min="16" max="16" width="2.5" style="35" customWidth="1"/>
+    <col min="17" max="17" width="22.5" style="35" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="17" thickBot="1"/>
@@ -4521,7 +4448,7 @@
     </row>
     <row r="7" spans="1:17" ht="17" thickBot="1">
       <c r="B7" s="38"/>
-      <c r="C7" s="196" t="s">
+      <c r="C7" s="184" t="s">
         <v>100</v>
       </c>
       <c r="D7" s="43"/>
@@ -4544,7 +4471,7 @@
     </row>
     <row r="8" spans="1:17" ht="17" thickBot="1">
       <c r="B8" s="38"/>
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="184" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="43"/>
@@ -4703,7 +4630,7 @@
     <row r="15" spans="1:17" ht="17" thickBot="1">
       <c r="A15" s="96"/>
       <c r="B15" s="97"/>
-      <c r="C15" s="195" t="s">
+      <c r="C15" s="183" t="s">
         <v>138</v>
       </c>
       <c r="D15" s="12"/>
@@ -4717,7 +4644,7 @@
         <v>50</v>
       </c>
       <c r="J15" s="41"/>
-      <c r="L15" s="155">
+      <c r="L15" s="149">
         <f>Notes!E187</f>
         <v>50</v>
       </c>
@@ -4729,7 +4656,7 @@
     <row r="16" spans="1:17" ht="17" thickBot="1">
       <c r="A16" s="96"/>
       <c r="B16" s="97"/>
-      <c r="C16" s="195" t="s">
+      <c r="C16" s="183" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="12"/>
@@ -4741,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="41"/>
-      <c r="L16" s="155">
+      <c r="L16" s="149">
         <v>0</v>
       </c>
       <c r="N16" s="118" t="s">
@@ -4752,7 +4679,7 @@
     <row r="17" spans="1:15" ht="17" thickBot="1">
       <c r="A17" s="96"/>
       <c r="B17" s="97"/>
-      <c r="C17" s="195" t="s">
+      <c r="C17" s="183" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="12"/>
@@ -4764,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="41"/>
-      <c r="L17" s="155">
+      <c r="L17" s="149">
         <v>0</v>
       </c>
       <c r="N17" s="118" t="s">
@@ -4775,7 +4702,7 @@
     <row r="18" spans="1:15" ht="17" thickBot="1">
       <c r="A18" s="96"/>
       <c r="B18" s="97"/>
-      <c r="C18" s="195" t="s">
+      <c r="C18" s="183" t="s">
         <v>142</v>
       </c>
       <c r="D18" s="12"/>
@@ -4787,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="41"/>
-      <c r="L18" s="155">
+      <c r="L18" s="149">
         <v>0</v>
       </c>
       <c r="N18" s="118" t="s">
@@ -4862,7 +4789,7 @@
     <row r="24" spans="1:15" ht="17" thickBot="1">
       <c r="A24" s="96"/>
       <c r="B24" s="97"/>
-      <c r="C24" s="193" t="s">
+      <c r="C24" s="181" t="s">
         <v>143</v>
       </c>
       <c r="D24" s="101"/>
@@ -4885,7 +4812,7 @@
     <row r="25" spans="1:15" ht="17" thickBot="1">
       <c r="A25" s="96"/>
       <c r="B25" s="97"/>
-      <c r="C25" s="194" t="s">
+      <c r="C25" s="182" t="s">
         <v>144</v>
       </c>
       <c r="F25" s="107" t="s">
@@ -4908,7 +4835,7 @@
     <row r="26" spans="1:15" ht="17" thickBot="1">
       <c r="A26" s="96"/>
       <c r="B26" s="97"/>
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="182" t="s">
         <v>145</v>
       </c>
       <c r="F26" s="102" t="s">
@@ -4931,7 +4858,7 @@
     <row r="27" spans="1:15" ht="17" thickBot="1">
       <c r="A27" s="122"/>
       <c r="B27" s="123"/>
-      <c r="C27" s="185" t="s">
+      <c r="C27" s="173" t="s">
         <v>84</v>
       </c>
       <c r="D27" s="122"/>
@@ -4957,7 +4884,7 @@
     <row r="28" spans="1:15" ht="17" thickBot="1">
       <c r="A28" s="122"/>
       <c r="B28" s="123"/>
-      <c r="C28" s="185" t="s">
+      <c r="C28" s="173" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="122"/>
@@ -4983,7 +4910,7 @@
     <row r="29" spans="1:15" ht="17" thickBot="1">
       <c r="A29" s="96"/>
       <c r="B29" s="97"/>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="173" t="s">
         <v>93</v>
       </c>
       <c r="F29" s="121" t="s">
@@ -5005,7 +4932,7 @@
     <row r="30" spans="1:15" ht="17" thickBot="1">
       <c r="A30" s="122"/>
       <c r="B30" s="123"/>
-      <c r="C30" s="186" t="s">
+      <c r="C30" s="174" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="122"/>
@@ -5031,14 +4958,14 @@
     <row r="31" spans="1:15">
       <c r="A31" s="122"/>
       <c r="B31" s="123"/>
-      <c r="C31" s="187"/>
+      <c r="C31" s="175"/>
       <c r="H31" s="41"/>
       <c r="J31" s="41"/>
       <c r="N31" s="44"/>
     </row>
     <row r="32" spans="1:15">
       <c r="B32" s="38"/>
-      <c r="C32" s="187"/>
+      <c r="C32" s="175"/>
       <c r="H32" s="41"/>
       <c r="J32" s="41"/>
       <c r="N32" s="93"/>
@@ -5061,7 +4988,7 @@
     <row r="34" spans="1:14" ht="17" thickBot="1">
       <c r="A34" s="96"/>
       <c r="B34" s="97"/>
-      <c r="C34" s="189" t="s">
+      <c r="C34" s="177" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="102" t="s">
@@ -5084,7 +5011,7 @@
     <row r="35" spans="1:14" ht="17" thickBot="1">
       <c r="A35" s="96"/>
       <c r="B35" s="97"/>
-      <c r="C35" s="190" t="s">
+      <c r="C35" s="178" t="s">
         <v>76</v>
       </c>
       <c r="F35" s="102" t="s">
@@ -5107,7 +5034,7 @@
     <row r="36" spans="1:14" ht="17" thickBot="1">
       <c r="A36" s="96"/>
       <c r="B36" s="97"/>
-      <c r="C36" s="191" t="s">
+      <c r="C36" s="179" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="102" t="s">
@@ -5130,7 +5057,7 @@
     <row r="37" spans="1:14" ht="17" thickBot="1">
       <c r="A37" s="96"/>
       <c r="B37" s="97"/>
-      <c r="C37" s="192" t="s">
+      <c r="C37" s="180" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="12"/>
@@ -5149,7 +5076,7 @@
     <row r="38" spans="1:14" ht="17" thickBot="1">
       <c r="A38" s="96"/>
       <c r="B38" s="97"/>
-      <c r="C38" s="188" t="s">
+      <c r="C38" s="176" t="s">
         <v>70</v>
       </c>
       <c r="H38" s="106">
@@ -5167,7 +5094,7 @@
     <row r="39" spans="1:14" ht="17" thickBot="1">
       <c r="A39" s="96"/>
       <c r="B39" s="97"/>
-      <c r="C39" s="188" t="s">
+      <c r="C39" s="176" t="s">
         <v>71</v>
       </c>
       <c r="H39" s="106">
@@ -5185,7 +5112,7 @@
     <row r="40" spans="1:14" ht="17" thickBot="1">
       <c r="A40" s="96"/>
       <c r="B40" s="97"/>
-      <c r="C40" s="188" t="s">
+      <c r="C40" s="176" t="s">
         <v>72</v>
       </c>
       <c r="H40" s="106">
@@ -5203,7 +5130,7 @@
     <row r="41" spans="1:14" ht="17" thickBot="1">
       <c r="A41" s="96"/>
       <c r="B41" s="97"/>
-      <c r="C41" s="188" t="s">
+      <c r="C41" s="176" t="s">
         <v>73</v>
       </c>
       <c r="H41" s="106">
@@ -5221,7 +5148,7 @@
     <row r="42" spans="1:14" ht="17" thickBot="1">
       <c r="A42" s="96"/>
       <c r="B42" s="97"/>
-      <c r="C42" s="188" t="s">
+      <c r="C42" s="176" t="s">
         <v>74</v>
       </c>
       <c r="H42" s="106">
@@ -5253,18 +5180,18 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="48" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="53" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="48" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="48"/>
+    <col min="1" max="1" width="3.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="48" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="53" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="53" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="48" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -5578,18 +5505,18 @@
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="57" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="57" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="57" customWidth="1"/>
     <col min="4" max="4" width="4" style="57" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="57" customWidth="1"/>
-    <col min="7" max="13" width="10.7109375" style="57"/>
-    <col min="14" max="14" width="15.7109375" style="57" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="57"/>
-    <col min="16" max="16" width="54.7109375" style="57" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="57"/>
+    <col min="5" max="5" width="13.1640625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="57" customWidth="1"/>
+    <col min="7" max="13" width="10.6640625" style="57"/>
+    <col min="14" max="14" width="15.6640625" style="57" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="57"/>
+    <col min="16" max="16" width="54.6640625" style="57" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1"/>

--- a/nodes_source_analyses/energy/energy/energy_heat_flexibility_p2h_boiler_electricity.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_heat_flexibility_p2h_boiler_electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0DF4B1-C291-F04D-81FB-C193CFC3F8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA98F52-7517-A640-9FBA-599AF064C42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8920" yWindow="-17220" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="154">
   <si>
     <t>Source</t>
   </si>
@@ -273,9 +273,6 @@
     <t>yes=1, no=0</t>
   </si>
   <si>
-    <t>land_use_per_unit</t>
-  </si>
-  <si>
     <t>km2</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
   </si>
   <si>
     <t>without ccs</t>
-  </si>
-  <si>
-    <t>Without ccs</t>
   </si>
   <si>
     <r>
@@ -554,6 +548,73 @@
     <t>euro/kWe</t>
   </si>
   <si>
+    <t>of the food industry</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>This simulates instantaneous use</t>
+  </si>
+  <si>
+    <t>output capacity</t>
+  </si>
+  <si>
+    <t>storage.volume</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Storage volume of 1 hour represents instantaneous use of P2H</t>
+  </si>
+  <si>
+    <t>storage volume in time</t>
+  </si>
+  <si>
+    <t>electricity_output_capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial investment costs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed operational and maintenance costs </t>
+  </si>
+  <si>
+    <t>Variable operational and maintenance costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
+  <si>
+    <t>energy_heat_flexibility_p2h_boiler_electricity</t>
+  </si>
+  <si>
+    <t>Marlieke Verweij</t>
+  </si>
+  <si>
+    <t>max_consumption_price</t>
+  </si>
+  <si>
+    <t>Quintel assumption (see https://docs.energytransitionmodel.com/main/cost-wacc)</t>
+  </si>
+  <si>
+    <t>No CCS unit for this plant</t>
+  </si>
+  <si>
+    <t>euro/y</t>
+  </si>
+  <si>
+    <t>h/y</t>
+  </si>
+  <si>
+    <t>euro/MWh</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
     <r>
       <t>output.</t>
     </r>
@@ -565,60 +626,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>useable_heat</t>
+      <t>steam_hot_water</t>
     </r>
-  </si>
-  <si>
-    <t>of the food industry</t>
-  </si>
-  <si>
-    <t>MWh</t>
-  </si>
-  <si>
-    <t>This simulates instantaneous use</t>
-  </si>
-  <si>
-    <t>output capacity</t>
-  </si>
-  <si>
-    <t>storage.volume</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>Storage volume of 1 hour represents instantaneous use of P2H</t>
-  </si>
-  <si>
-    <t>storage volume in time</t>
-  </si>
-  <si>
-    <t>electricity_output_capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial investment costs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed operational and maintenance costs </t>
-  </si>
-  <si>
-    <t>Variable operational and maintenance costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
-</t>
-  </si>
-  <si>
-    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
-  </si>
-  <si>
-    <t>energy_heat_flexibility_p2h_boiler_electricity</t>
-  </si>
-  <si>
-    <t>Marlieke Verweij</t>
-  </si>
-  <si>
-    <t>max_consumption_price</t>
   </si>
 </sst>
 </file>
@@ -630,7 +639,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -904,12 +913,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1696,7 +1699,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1711,74 +1714,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1787,195 +1782,176 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1988,7 +1964,7 @@
     <xf numFmtId="0" fontId="35" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2003,15 +1979,28 @@
     <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="484">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2756,7 +2745,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2869,7 +2858,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3262,23 +3251,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="20"/>
+    <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+    <row r="1" spans="1:3" s="23" customFormat="1">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
@@ -3291,7 +3280,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3300,7 +3289,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3324,105 +3313,105 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="58"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="61" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="68"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="71" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="62" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="69" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="60" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="63" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="73" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="64" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="74" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="65" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="75" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="66" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77" t="s">
+      <c r="B20" s="67"/>
+      <c r="C20" s="68" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="78" t="s">
+      <c r="B21" s="67"/>
+      <c r="C21" s="69" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="79" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="70" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="76"/>
-      <c r="C23" s="80" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="71" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3437,894 +3426,782 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A2:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="32" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="32" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="32" customWidth="1"/>
-    <col min="7" max="7" width="37.83203125" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="32"/>
+    <col min="1" max="2" width="3.5" style="28" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="28" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="28" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="28" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="D1" s="33"/>
-    </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="191" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="164" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="166"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="194"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="169"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="194"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="169"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="197"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1">
-      <c r="D7" s="33"/>
-    </row>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="172"/>
+    </row>
+    <row r="7" spans="1:11" ht="17" thickBot="1"/>
     <row r="8" spans="1:11">
-      <c r="B8" s="150"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="152"/>
-    </row>
-    <row r="9" spans="1:11" s="24" customFormat="1">
-      <c r="B9" s="22"/>
-      <c r="C9" s="30" t="s">
+      <c r="B8" s="174"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
+    </row>
+    <row r="9" spans="1:11" s="13" customFormat="1">
+      <c r="B9" s="177"/>
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="153"/>
-    </row>
-    <row r="10" spans="1:11" s="24" customFormat="1">
-      <c r="B10" s="154"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="155"/>
-    </row>
-    <row r="11" spans="1:11" s="24" customFormat="1" ht="17" thickBot="1">
-      <c r="B11" s="154"/>
-      <c r="C11" s="30" t="s">
+      <c r="J9" s="179"/>
+    </row>
+    <row r="10" spans="1:11" s="13" customFormat="1">
+      <c r="B10" s="20"/>
+      <c r="D10" s="180"/>
+      <c r="J10" s="181"/>
+    </row>
+    <row r="11" spans="1:11" s="13" customFormat="1" ht="17" thickBot="1">
+      <c r="B11" s="20"/>
+      <c r="C11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="155"/>
+      <c r="D11" s="180"/>
+      <c r="J11" s="181"/>
     </row>
     <row r="12" spans="1:11" ht="17" thickBot="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="138" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="156">
+      <c r="A12" s="13"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="133">
         <f>'Research data'!H7</f>
         <v>50</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="138" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="157" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="155"/>
-      <c r="K12" s="24"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="181"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="206" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="194" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="172">
+      <c r="E13" s="143">
         <f>'Research data'!H8</f>
         <v>0.995</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="94" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="157" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="155"/>
-      <c r="K13" s="24"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="181"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="17" thickBot="1">
-      <c r="A14" s="96"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="171">
+      <c r="E14" s="142">
         <f>'Research data'!H9</f>
         <v>50.251256281407038</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="130" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="94"/>
-      <c r="I14" s="157" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="158"/>
-      <c r="K14" s="33"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="84"/>
+      <c r="I14" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="190"/>
     </row>
     <row r="15" spans="1:11" ht="17" thickBot="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="156">
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="183" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="133">
         <f>'Research data'!H11</f>
         <v>2190</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="159" t="s">
-        <v>126</v>
-      </c>
-      <c r="J15" s="158"/>
-      <c r="K15" s="33"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="190"/>
     </row>
     <row r="16" spans="1:11" ht="17" thickBot="1">
-      <c r="B16" s="147"/>
-      <c r="C16" s="94" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="156">
+      <c r="E16" s="142">
         <f>'Research data'!H10</f>
         <v>0.99</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="159" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="158"/>
-    </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1">
-      <c r="B17" s="147"/>
-      <c r="C17" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="160">
-        <v>0</v>
-      </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="159" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="158"/>
-    </row>
-    <row r="18" spans="1:10" s="185" customFormat="1" ht="17" thickBot="1">
-      <c r="B18" s="186"/>
-      <c r="C18" s="207" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="187">
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="135" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="190"/>
+    </row>
+    <row r="17" spans="1:10" s="156" customFormat="1" ht="17" thickBot="1">
+      <c r="B17" s="184"/>
+      <c r="C17" s="154" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="157">
         <f>'Research data'!H15</f>
         <v>50</v>
       </c>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="189" t="str">
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="159" t="str">
         <f>'Research data'!N15</f>
         <v>This simulates instantaneous use</v>
       </c>
-      <c r="J18" s="190"/>
-    </row>
-    <row r="19" spans="1:10" s="185" customFormat="1" ht="17" thickBot="1">
-      <c r="B19" s="186"/>
-      <c r="C19" s="207" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="187">
-        <f>'Research data'!H16</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="189" t="str">
-        <f>'Research data'!N16</f>
-        <v>Quintel assumption</v>
-      </c>
-      <c r="J19" s="190"/>
-    </row>
-    <row r="20" spans="1:10" s="185" customFormat="1" ht="17" thickBot="1">
-      <c r="B20" s="186"/>
-      <c r="C20" s="207" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="187">
-        <f>'Research data'!H17</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="189" t="str">
-        <f>'Research data'!N17</f>
-        <v>Quintel assumption</v>
-      </c>
-      <c r="J20" s="190"/>
-    </row>
-    <row r="21" spans="1:10" s="185" customFormat="1" ht="17" thickBot="1">
-      <c r="B21" s="186"/>
-      <c r="C21" s="207" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="187">
+      <c r="J17" s="191"/>
+    </row>
+    <row r="18" spans="1:10" s="156" customFormat="1" ht="17" thickBot="1">
+      <c r="B18" s="184"/>
+      <c r="C18" s="154" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="157">
         <f>'Research data'!H18</f>
         <v>0</v>
       </c>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="189" t="str">
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="159" t="str">
         <f>'Research data'!N18</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J21" s="190"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" s="148"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="162"/>
-    </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1">
-      <c r="B23" s="148"/>
-      <c r="C23" s="30" t="s">
+      <c r="J18" s="191"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="185"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="192"/>
+    </row>
+    <row r="20" spans="1:10" ht="17" thickBot="1">
+      <c r="B20" s="185"/>
+      <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="162"/>
-    </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1">
-      <c r="B24" s="148"/>
-      <c r="C24" s="34" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="192"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1">
+      <c r="B21" s="185"/>
+      <c r="C21" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="156">
+      <c r="E21" s="133">
         <f>'Research data'!H24</f>
         <v>3000000</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34" t="s">
+      <c r="F21" s="29"/>
+      <c r="G21" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="163" t="s">
-        <v>99</v>
-      </c>
-      <c r="J24" s="162"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B25" s="148"/>
-      <c r="C25" s="34" t="s">
+      <c r="H21" s="29"/>
+      <c r="I21" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="192"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="B22" s="185"/>
+      <c r="C22" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="156">
+      <c r="D22" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="133">
         <f>'Research data'!H25</f>
         <v>50000</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="163" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="162"/>
-    </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1">
-      <c r="B26" s="164"/>
-      <c r="C26" s="119" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="156">
+      <c r="F22" s="29"/>
+      <c r="G22" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="192"/>
+    </row>
+    <row r="23" spans="1:10" ht="17" thickBot="1">
+      <c r="B23" s="186"/>
+      <c r="C23" s="187" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="133">
         <f>'Research data'!H26</f>
         <v>25</v>
       </c>
-      <c r="F26" s="116"/>
-      <c r="G26" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="116"/>
-      <c r="I26" s="163" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="165"/>
-    </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1">
-      <c r="B27" s="164"/>
-      <c r="C27" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="115"/>
-      <c r="E27" s="156">
+      <c r="F23" s="104"/>
+      <c r="G23" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="104"/>
+      <c r="I23" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="193"/>
+    </row>
+    <row r="24" spans="1:10" ht="17" thickBot="1">
+      <c r="B24" s="186"/>
+      <c r="C24" s="187" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="133">
         <f>'Research data'!H27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="116"/>
-      <c r="G27" s="119" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="116"/>
-      <c r="I27" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="165"/>
-    </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1">
-      <c r="B28" s="164"/>
-      <c r="C28" s="119" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="115"/>
-      <c r="E28" s="156">
+      <c r="F24" s="104"/>
+      <c r="G24" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="104"/>
+      <c r="I24" s="173" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="193"/>
+    </row>
+    <row r="25" spans="1:10" ht="17" thickBot="1">
+      <c r="B25" s="186"/>
+      <c r="C25" s="187" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="133">
         <f>'Research data'!H28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="116"/>
-      <c r="G28" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="116"/>
-      <c r="I28" s="167" t="s">
-        <v>118</v>
-      </c>
-      <c r="J28" s="165"/>
-    </row>
-    <row r="29" spans="1:10" ht="17" thickBot="1">
-      <c r="B29" s="164"/>
-      <c r="C29" s="208" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="115"/>
-      <c r="E29" s="156">
+      <c r="F25" s="104"/>
+      <c r="G25" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="104"/>
+      <c r="I25" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="193"/>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickBot="1">
+      <c r="B26" s="186"/>
+      <c r="C26" s="188" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="133">
         <f>'Research data'!H29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="116"/>
-      <c r="G29" s="119" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="116"/>
-      <c r="I29" s="167" t="s">
-        <v>121</v>
-      </c>
-      <c r="J29" s="165"/>
-    </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1">
-      <c r="B30" s="164"/>
-      <c r="C30" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="156">
+      <c r="F26" s="104"/>
+      <c r="G26" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="104"/>
+      <c r="I26" s="140" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="193"/>
+    </row>
+    <row r="27" spans="1:10" ht="17" thickBot="1">
+      <c r="B27" s="186"/>
+      <c r="C27" s="187" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="133">
         <f>'Research data'!H30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="116"/>
-      <c r="G30" s="120" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="J30" s="165"/>
-    </row>
-    <row r="31" spans="1:10" ht="17" thickBot="1">
-      <c r="A31" s="96"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="94" t="s">
+      <c r="F27" s="104"/>
+      <c r="G27" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="104"/>
+      <c r="I27" s="173" t="s">
+        <v>148</v>
+      </c>
+      <c r="J27" s="193"/>
+    </row>
+    <row r="28" spans="1:10" ht="17" thickBot="1">
+      <c r="A28" s="86"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D28" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="160">
+      <c r="E28" s="136">
         <v>0.04</v>
       </c>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94" t="s">
+      <c r="F28" s="84"/>
+      <c r="G28" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="94"/>
-      <c r="I31" s="202" t="s">
+      <c r="H28" s="84"/>
+      <c r="I28" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="J31" s="158"/>
+      <c r="J28" s="190"/>
+    </row>
+    <row r="29" spans="1:10" ht="17" thickBot="1">
+      <c r="A29" s="86"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="136">
+        <v>0</v>
+      </c>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="135" t="s">
+        <v>118</v>
+      </c>
+      <c r="J29" s="190"/>
+    </row>
+    <row r="30" spans="1:10" ht="17" thickBot="1">
+      <c r="A30" s="86"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="189" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="136">
+        <v>19</v>
+      </c>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="160" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="190"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="86"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="190"/>
     </row>
     <row r="32" spans="1:10" ht="17" thickBot="1">
-      <c r="A32" s="96"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="160">
-        <v>0</v>
-      </c>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="159" t="s">
-        <v>120</v>
-      </c>
-      <c r="J32" s="158"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="190"/>
     </row>
     <row r="33" spans="1:10" ht="17" thickBot="1">
-      <c r="A33" s="96"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="200" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="160">
-        <v>19</v>
-      </c>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="201" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" s="158"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="96"/>
-      <c r="B34" s="147"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="158"/>
-    </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1">
-      <c r="A35" s="96"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="158"/>
-    </row>
-    <row r="36" spans="1:10" ht="17" thickBot="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="94" t="s">
+      <c r="A33" s="86"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="160">
+      <c r="D33" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="136">
         <f>'Research data'!H34</f>
         <v>15</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" s="94"/>
-      <c r="I36" s="163" t="s">
-        <v>99</v>
-      </c>
-      <c r="J36" s="158"/>
-    </row>
-    <row r="37" spans="1:10" ht="17" thickBot="1">
-      <c r="A37" s="96"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="160">
+      <c r="F33" s="84"/>
+      <c r="G33" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="84"/>
+      <c r="I33" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="190"/>
+    </row>
+    <row r="34" spans="1:10" ht="17" thickBot="1">
+      <c r="A34" s="86"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="136">
         <f>'Research data'!H35</f>
         <v>0</v>
       </c>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="94"/>
-      <c r="I37" s="168"/>
-      <c r="J37" s="158"/>
-    </row>
-    <row r="38" spans="1:10" ht="17" thickBot="1">
-      <c r="A38" s="96"/>
-      <c r="B38" s="147"/>
-      <c r="C38" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="169">
-        <f>'Research data'!H36</f>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="84"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="190"/>
+    </row>
+    <row r="35" spans="1:10" ht="17" thickBot="1">
+      <c r="A35" s="86"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="136">
         <v>0</v>
       </c>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" s="94"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="158"/>
-    </row>
-    <row r="39" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A39" s="99"/>
-      <c r="B39" s="147"/>
-      <c r="C39" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="160">
-        <v>0</v>
-      </c>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="159" t="s">
-        <v>122</v>
-      </c>
-      <c r="J39" s="158"/>
-    </row>
-    <row r="40" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A40" s="99"/>
-      <c r="B40" s="147"/>
-      <c r="C40" s="207" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="160">
-        <v>0</v>
-      </c>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="159" t="s">
-        <v>122</v>
-      </c>
-      <c r="J40" s="158"/>
-    </row>
-    <row r="41" spans="1:10" ht="17" thickBot="1">
-      <c r="A41" s="96"/>
-      <c r="B41" s="203"/>
-      <c r="C41" s="204"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="204"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="204"/>
-      <c r="I41" s="204"/>
-      <c r="J41" s="205"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="190"/>
+    </row>
+    <row r="36" spans="1:10" ht="17" thickBot="1">
+      <c r="A36" s="86"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="163"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="131"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="86"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="96"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="96"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="96"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="146"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
+      <c r="A44" s="86"/>
+      <c r="C44" s="131"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="96"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
+      <c r="A45" s="86"/>
+      <c r="C45" s="131"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="96"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
+      <c r="C46" s="131"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="96"/>
-      <c r="B47" s="96"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
+      <c r="C47" s="131"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="96"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="96"/>
-      <c r="C49" s="146"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="96"/>
-      <c r="C50" s="146"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="C51" s="146"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="C52" s="146"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="C53" s="146"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="C54" s="146"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="C55" s="146"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="C56" s="146"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="C57" s="146"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="C58" s="146"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="C59" s="146"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="C60" s="146"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="C61" s="146"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="C62" s="146"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="C63" s="146"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="C64" s="146"/>
+      <c r="C48" s="131"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="131"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="131"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="131"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="131"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="131"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="131"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="131"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="131"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="131"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="131"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="131"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="131"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="131"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="131"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="131"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="131"/>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="146"/>
+      <c r="C65" s="131"/>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="146"/>
+      <c r="C66" s="131"/>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="146"/>
+      <c r="C67" s="131"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="146"/>
+      <c r="C68" s="131"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="146"/>
+      <c r="C69" s="131"/>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="146"/>
+      <c r="C70" s="131"/>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="146"/>
+      <c r="C71" s="131"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="146"/>
+      <c r="C72" s="131"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="146"/>
+      <c r="C73" s="131"/>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="146"/>
+      <c r="C74" s="131"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="146"/>
+      <c r="C75" s="131"/>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="146"/>
+      <c r="C76" s="131"/>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="146"/>
+      <c r="C77" s="131"/>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="146"/>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" s="146"/>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="146"/>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="146"/>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="146"/>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="146"/>
+      <c r="C78" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4342,438 +4219,436 @@
   </sheetPr>
   <dimension ref="A2:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3" style="35" customWidth="1"/>
-    <col min="3" max="3" width="52.1640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="35" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3" style="35" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="35" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="35" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="35" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="35" customWidth="1"/>
-    <col min="14" max="14" width="37.33203125" style="35" customWidth="1"/>
-    <col min="15" max="15" width="11" style="35" customWidth="1"/>
-    <col min="16" max="16" width="2.5" style="35" customWidth="1"/>
-    <col min="17" max="17" width="22.5" style="35" customWidth="1"/>
-    <col min="18" max="16384" width="10.6640625" style="35"/>
+    <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="3" style="30" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="30" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="30" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="30" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="30" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="30" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="30" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="30" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="11" style="30" customWidth="1"/>
+    <col min="16" max="16" width="2.5" style="30" customWidth="1"/>
+    <col min="17" max="17" width="22.5" style="30" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="30"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="17" thickBot="1"/>
     <row r="3" spans="1:17">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-    </row>
-    <row r="4" spans="1:17" s="24" customFormat="1">
-      <c r="B4" s="23"/>
-      <c r="C4" s="81" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+    </row>
+    <row r="4" spans="1:17" s="13" customFormat="1">
+      <c r="B4" s="20"/>
+      <c r="C4" s="72" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81" t="s">
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1">
-      <c r="B5" s="38"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="46"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="38"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="31"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="44"/>
+      <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="17" thickBot="1">
-      <c r="B7" s="38"/>
-      <c r="C7" s="184" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="135">
+      <c r="B7" s="33"/>
+      <c r="C7" s="155" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="122">
         <f>J7</f>
         <v>50</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="135">
+      <c r="I7" s="34"/>
+      <c r="J7" s="122">
         <f>Notes!E30</f>
         <v>50</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="93"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="83"/>
     </row>
     <row r="8" spans="1:17" ht="17" thickBot="1">
-      <c r="B8" s="38"/>
-      <c r="C8" s="184" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="91" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="135">
+      <c r="G8" s="73"/>
+      <c r="H8" s="122">
         <f>J8</f>
         <v>0.995</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="135">
+      <c r="I8" s="34"/>
+      <c r="J8" s="122">
         <f>Notes!E39</f>
         <v>0.995</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="44"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="17" thickBot="1">
-      <c r="B9" s="38"/>
-      <c r="C9" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="102" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="135">
+      <c r="G9" s="73"/>
+      <c r="H9" s="122">
         <f>J9</f>
         <v>50.251256281407038</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="135">
+      <c r="I9" s="34"/>
+      <c r="J9" s="122">
         <f>J7/J8</f>
         <v>50.251256281407038</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="93"/>
+      <c r="K9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="83"/>
     </row>
     <row r="10" spans="1:17" ht="17" thickBot="1">
-      <c r="A10" s="96"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="94" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="21" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="98">
+      <c r="G10" s="73"/>
+      <c r="H10" s="88">
         <f>J10</f>
         <v>0.99</v>
       </c>
-      <c r="I10" s="94"/>
-      <c r="J10" s="106">
+      <c r="I10" s="84"/>
+      <c r="J10" s="95">
         <v>0.99</v>
       </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="96"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="86"/>
     </row>
     <row r="11" spans="1:17" ht="17" thickBot="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="117" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="98">
+      <c r="H11" s="88">
         <f>L11</f>
         <v>2190</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="106">
+      <c r="J11" s="35"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="95">
         <f>Notes!E17</f>
         <v>2190</v>
       </c>
-      <c r="M11" s="96"/>
-      <c r="N11" s="118" t="s">
-        <v>125</v>
-      </c>
-      <c r="O11" s="96"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" s="86"/>
     </row>
     <row r="12" spans="1:17" ht="17" thickBot="1">
-      <c r="A12" s="96"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="94" t="s">
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="21" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="96"/>
+      <c r="H12" s="88"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="86"/>
     </row>
     <row r="13" spans="1:17" ht="17" thickBot="1">
-      <c r="A13" s="96"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="94" t="s">
+      <c r="A13" s="86"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="21" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="96"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="86"/>
     </row>
     <row r="14" spans="1:17" ht="17" thickBot="1">
-      <c r="A14" s="96"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="94" t="s">
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="84" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="98"/>
-      <c r="J14" s="41"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="96"/>
+      <c r="H14" s="88"/>
+      <c r="J14" s="35"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="86"/>
     </row>
     <row r="15" spans="1:17" ht="17" thickBot="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="183" t="s">
-        <v>138</v>
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="154" t="s">
+        <v>135</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="21" t="s">
-        <v>135</v>
+      <c r="F15" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="98">
+      <c r="H15" s="88">
         <f>Notes!E187</f>
         <v>50</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="L15" s="149">
+      <c r="J15" s="35"/>
+      <c r="L15" s="132">
         <f>Notes!E187</f>
         <v>50</v>
       </c>
-      <c r="N15" s="118" t="s">
-        <v>136</v>
-      </c>
-      <c r="O15" s="96"/>
+      <c r="N15" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="86"/>
     </row>
     <row r="16" spans="1:17" ht="17" thickBot="1">
-      <c r="A16" s="96"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="183" t="s">
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="154" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="98">
+      <c r="H16" s="88">
         <f>L16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="41"/>
-      <c r="L16" s="149">
+      <c r="J16" s="35"/>
+      <c r="L16" s="132">
         <v>0</v>
       </c>
-      <c r="N16" s="118" t="s">
-        <v>119</v>
-      </c>
-      <c r="O16" s="96"/>
+      <c r="N16" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="86"/>
     </row>
     <row r="17" spans="1:15" ht="17" thickBot="1">
-      <c r="A17" s="96"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="183" t="s">
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="154" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="98">
+      <c r="H17" s="88">
         <f>L17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="41"/>
-      <c r="L17" s="149">
+      <c r="J17" s="35"/>
+      <c r="L17" s="132">
         <v>0</v>
       </c>
-      <c r="N17" s="118" t="s">
-        <v>119</v>
-      </c>
-      <c r="O17" s="96"/>
+      <c r="N17" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" s="86"/>
     </row>
     <row r="18" spans="1:15" ht="17" thickBot="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="183" t="s">
-        <v>142</v>
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="154" t="s">
+        <v>139</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="98">
+      <c r="H18" s="88">
         <f>L18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="41"/>
-      <c r="L18" s="149">
+      <c r="J18" s="35"/>
+      <c r="L18" s="132">
         <v>0</v>
       </c>
-      <c r="N18" s="118" t="s">
-        <v>119</v>
-      </c>
-      <c r="O18" s="96"/>
+      <c r="N18" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="O18" s="86"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="96"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="94"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="100"/>
-      <c r="J19" s="41"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="96"/>
+      <c r="H19" s="89"/>
+      <c r="J19" s="35"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="86"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="96"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="94"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="100"/>
-      <c r="J20" s="41"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="96"/>
+      <c r="H20" s="89"/>
+      <c r="J20" s="35"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="86"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="B21" s="38"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="118"/>
+      <c r="B21" s="33"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="106"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="96"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="27"/>
+      <c r="F22" s="27"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="46"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="40"/>
     </row>
     <row r="23" spans="1:15" ht="17" thickBot="1">
-      <c r="A23" s="96"/>
-      <c r="B23" s="97"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="12" t="s">
         <v>42</v>
       </c>
@@ -4783,384 +4658,384 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="93"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="83"/>
     </row>
     <row r="24" spans="1:15" ht="17" thickBot="1">
-      <c r="A24" s="96"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="181" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="105" t="s">
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="152" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="106">
+      <c r="H24" s="95">
         <f t="shared" ref="H24:H30" si="0">J24</f>
         <v>3000000</v>
       </c>
-      <c r="I24" s="103"/>
-      <c r="J24" s="135">
+      <c r="I24" s="92"/>
+      <c r="J24" s="122">
         <f>Notes!E49</f>
         <v>3000000</v>
       </c>
-      <c r="K24" s="103"/>
-      <c r="N24" s="93"/>
+      <c r="K24" s="92"/>
+      <c r="N24" s="83"/>
     </row>
     <row r="25" spans="1:15" ht="17" thickBot="1">
-      <c r="A25" s="96"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="182" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="107" t="s">
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="153" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="106">
+      <c r="H25" s="95">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="J25" s="135">
+      <c r="J25" s="122">
         <f>Notes!E53</f>
         <v>50000</v>
       </c>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="110" t="s">
-        <v>78</v>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="84" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="17" thickBot="1">
-      <c r="A26" s="96"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="182" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="102" t="s">
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="153" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="136">
+      <c r="H26" s="123">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J26" s="135">
+      <c r="J26" s="122">
         <f>Notes!E56</f>
         <v>25</v>
       </c>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="110" t="s">
-        <v>78</v>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="84" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="17" thickBot="1">
-      <c r="A27" s="122"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="173" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="121" t="s">
+      <c r="A27" s="110"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="122"/>
-      <c r="H27" s="124">
+      <c r="G27" s="110"/>
+      <c r="H27" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="125"/>
-      <c r="J27" s="124">
+      <c r="I27" s="113"/>
+      <c r="J27" s="112">
         <v>0</v>
       </c>
-      <c r="K27" s="125"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="126" t="s">
-        <v>94</v>
+      <c r="K27" s="113"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="109" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17" thickBot="1">
-      <c r="A28" s="122"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="173" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="121" t="s">
+      <c r="A28" s="110"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="122"/>
-      <c r="H28" s="124">
+      <c r="G28" s="110"/>
+      <c r="H28" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="125"/>
-      <c r="J28" s="124">
+      <c r="I28" s="113"/>
+      <c r="J28" s="112">
         <v>0</v>
       </c>
-      <c r="K28" s="125"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="126" t="s">
-        <v>94</v>
+      <c r="K28" s="113"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="109" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="17" thickBot="1">
-      <c r="A29" s="96"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="173" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="121" t="s">
+      <c r="A29" s="86"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="106">
+      <c r="H29" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="100"/>
-      <c r="J29" s="106">
+      <c r="I29" s="89"/>
+      <c r="J29" s="95">
         <v>0</v>
       </c>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="110"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="84"/>
     </row>
     <row r="30" spans="1:15" ht="17" thickBot="1">
-      <c r="A30" s="122"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="174" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="122"/>
-      <c r="H30" s="124">
+      <c r="A30" s="110"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="145" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="110"/>
+      <c r="H30" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I30" s="125"/>
-      <c r="J30" s="124">
+      <c r="I30" s="113"/>
+      <c r="J30" s="112">
         <v>0</v>
       </c>
-      <c r="K30" s="125"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="118" t="s">
-        <v>94</v>
+      <c r="K30" s="113"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="106" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="122"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="175"/>
-      <c r="H31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="N31" s="44"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="146"/>
+      <c r="H31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="N31" s="38"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="B32" s="38"/>
-      <c r="C32" s="175"/>
-      <c r="H32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="N32" s="93"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="146"/>
+      <c r="H32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="N32" s="83"/>
     </row>
     <row r="33" spans="1:14" ht="17" thickBot="1">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="31" t="s">
+      <c r="A33" s="86"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="31"/>
+      <c r="F33" s="27"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="118"/>
+      <c r="N33" s="106"/>
     </row>
     <row r="34" spans="1:14" ht="17" thickBot="1">
-      <c r="A34" s="96"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="177" t="s">
+      <c r="A34" s="86"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="102" t="s">
+      <c r="F34" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="106">
+      <c r="H34" s="95">
         <f>J34</f>
         <v>15</v>
       </c>
-      <c r="I34" s="103"/>
-      <c r="J34" s="135">
+      <c r="I34" s="92"/>
+      <c r="J34" s="122">
         <f>Notes!E57</f>
         <v>15</v>
       </c>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="118"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="106"/>
     </row>
     <row r="35" spans="1:14" ht="17" thickBot="1">
-      <c r="A35" s="96"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="102" t="s">
+      <c r="A35" s="86"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="149" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="106">
+      <c r="H35" s="95">
         <f>L35</f>
         <v>0</v>
       </c>
-      <c r="I35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="135">
+      <c r="I35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="122">
         <v>0</v>
       </c>
-      <c r="M35" s="104"/>
-      <c r="N35" s="118" t="s">
-        <v>119</v>
+      <c r="M35" s="93"/>
+      <c r="N35" s="106" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17" thickBot="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" s="106">
+      <c r="A36" s="86"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="95">
         <f t="shared" ref="H36:H42" si="1">L36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="135">
+      <c r="I36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="122">
         <v>0</v>
       </c>
       <c r="M36" s="11"/>
-      <c r="N36" s="118" t="s">
-        <v>119</v>
+      <c r="N36" s="106" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17" thickBot="1">
-      <c r="A37" s="96"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="180" t="s">
+      <c r="A37" s="86"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="151" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="12"/>
-      <c r="H37" s="106">
+      <c r="H37" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="L37" s="135">
+      <c r="J37" s="35"/>
+      <c r="L37" s="122">
         <v>0</v>
       </c>
-      <c r="N37" s="118" t="s">
-        <v>119</v>
+      <c r="N37" s="106" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17" thickBot="1">
-      <c r="A38" s="96"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="176" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="106">
+      <c r="A38" s="86"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="147" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="41"/>
-      <c r="L38" s="135">
+      <c r="J38" s="35"/>
+      <c r="L38" s="122">
         <v>0</v>
       </c>
-      <c r="N38" s="118" t="s">
-        <v>119</v>
+      <c r="N38" s="106" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17" thickBot="1">
-      <c r="A39" s="96"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="176" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="106">
+      <c r="A39" s="86"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="147" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="41"/>
-      <c r="L39" s="135">
+      <c r="J39" s="35"/>
+      <c r="L39" s="122">
         <v>0</v>
       </c>
-      <c r="N39" s="118" t="s">
-        <v>119</v>
+      <c r="N39" s="106" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17" thickBot="1">
-      <c r="A40" s="96"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="176" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="106">
+      <c r="A40" s="86"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="147" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J40" s="41"/>
-      <c r="L40" s="135">
+      <c r="J40" s="35"/>
+      <c r="L40" s="122">
         <v>0</v>
       </c>
-      <c r="N40" s="118" t="s">
-        <v>119</v>
+      <c r="N40" s="106" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17" thickBot="1">
-      <c r="A41" s="96"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="176" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="106">
+      <c r="A41" s="86"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="147" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J41" s="41"/>
-      <c r="L41" s="135">
+      <c r="J41" s="35"/>
+      <c r="L41" s="122">
         <v>0</v>
       </c>
-      <c r="N41" s="118" t="s">
-        <v>119</v>
+      <c r="N41" s="106" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17" thickBot="1">
-      <c r="A42" s="96"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="176" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" s="106">
+      <c r="A42" s="86"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="147" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J42" s="41"/>
-      <c r="L42" s="135">
+      <c r="J42" s="35"/>
+      <c r="L42" s="122">
         <v>0</v>
       </c>
-      <c r="N42" s="118" t="s">
-        <v>119</v>
+      <c r="N42" s="106" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5182,32 +5057,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="48" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="48" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="48" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="53" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="53" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="48" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="48"/>
+    <col min="1" max="1" width="3.5" style="41" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="41" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="41" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="46" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="46" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="41" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="51"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
@@ -5215,23 +5090,14 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="47"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="51"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="44"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="56"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="14" t="s">
         <v>16</v>
       </c>
@@ -5247,10 +5113,10 @@
       <c r="G5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>47</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -5258,229 +5124,189 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="51"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="51"/>
-      <c r="C7" s="132" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="133" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="41">
+        <v>2015</v>
+      </c>
+      <c r="G7" s="41">
+        <v>2015</v>
+      </c>
+      <c r="H7" s="80">
+        <v>42558</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="121" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="47">
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="44"/>
+      <c r="C8" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="44"/>
+      <c r="C9" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="44"/>
+      <c r="C10" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="77"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="44"/>
+      <c r="C11" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="86"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="44"/>
+      <c r="C12" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="44"/>
+      <c r="C13" s="98"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="44"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="82"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="76"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="44"/>
+      <c r="E15" s="82"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="76"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="44"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="86"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="44"/>
+      <c r="C17" s="118"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="44"/>
+      <c r="C18" s="86"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="44"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="41">
         <v>2015</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G19" s="41">
         <v>2015</v>
       </c>
-      <c r="H7" s="90">
-        <v>42558</v>
-      </c>
-      <c r="I7" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="J7" s="134" t="s">
+      <c r="H19" s="80">
+        <v>42612</v>
+      </c>
+      <c r="J19" s="128" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="44"/>
+      <c r="C20" s="98"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="44"/>
+      <c r="C21" s="125" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="51"/>
-      <c r="C8" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="51"/>
-      <c r="C9" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="47"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="51"/>
-      <c r="C10" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="86"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="51"/>
-      <c r="C11" s="109" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="99"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="51"/>
-      <c r="C12" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="51"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="51"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="85"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="51"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="85"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="51"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="51"/>
-      <c r="C17" s="131"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="51"/>
-      <c r="C18" s="96"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="51"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="142" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="142" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="48">
-        <v>2015</v>
-      </c>
-      <c r="G19" s="48">
-        <v>2015</v>
-      </c>
-      <c r="H19" s="90">
+      <c r="D21" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="126" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="41">
+        <v>2013</v>
+      </c>
+      <c r="G21" s="41">
+        <v>2013</v>
+      </c>
+      <c r="H21" s="80">
         <v>42612</v>
       </c>
-      <c r="J19" s="143" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="51"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="51"/>
-      <c r="C21" s="139" t="s">
+      <c r="I21" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="140" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="140" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="47">
-        <v>2013</v>
-      </c>
-      <c r="G21" s="47">
-        <v>2013</v>
-      </c>
-      <c r="H21" s="90">
-        <v>42612</v>
-      </c>
-      <c r="I21" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="J21" s="141" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="51"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="B22" s="44"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="H30" s="144"/>
+      <c r="H30" s="129"/>
     </row>
   </sheetData>
   <phoneticPr fontId="36" type="noConversion"/>
@@ -5499,7 +5325,7 @@
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O242"/>
+  <dimension ref="A1:N242"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
@@ -5507,1720 +5333,1053 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="57" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="57" customWidth="1"/>
-    <col min="4" max="4" width="4" style="57" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="57" customWidth="1"/>
-    <col min="7" max="13" width="10.6640625" style="57"/>
-    <col min="14" max="14" width="15.6640625" style="57" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="57"/>
-    <col min="16" max="16" width="54.6640625" style="57" customWidth="1"/>
-    <col min="17" max="16384" width="10.6640625" style="57"/>
+    <col min="1" max="2" width="3.5" style="49" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="49" customWidth="1"/>
+    <col min="4" max="4" width="4" style="49" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="49" customWidth="1"/>
+    <col min="7" max="13" width="10.6640625" style="49"/>
+    <col min="14" max="14" width="15.6640625" style="49" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="49"/>
+    <col min="16" max="16" width="54.6640625" style="49" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" thickBot="1"/>
-    <row r="2" spans="1:15">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="61"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="65" t="s">
+    <row r="1" spans="1:14" ht="17" thickBot="1"/>
+    <row r="2" spans="1:14">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="52"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="53"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="84"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="B5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="B6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="B7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="63"/>
-      <c r="C16" s="64" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="75"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="55"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="55"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="55"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="55"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="55"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="55"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="55"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="55"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="55"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="55"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="55"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="55"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="55"/>
+      <c r="C16" s="49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="55"/>
+      <c r="E17" s="49">
+        <v>2190</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="57">
-        <v>2190</v>
-      </c>
-      <c r="F17" s="57" t="s">
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="55"/>
+      <c r="G18" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="G18" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="63"/>
-      <c r="C24" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="64">
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="55"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="55"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="55"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="55"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="55"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="55"/>
+      <c r="C24" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="49">
         <v>89</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="57">
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="55"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="55"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="55"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="55"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="55"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="55"/>
+      <c r="E30" s="49">
         <f>E78</f>
         <v>50</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-    </row>
-    <row r="33" spans="2:15">
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="63"/>
-      <c r="E34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-    </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-    </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="63"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64">
+      <c r="G30" s="49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="55"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="55"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="55"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="55"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="55"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="55"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="55"/>
+      <c r="H37" s="53"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="55"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="55"/>
+      <c r="E39" s="49">
         <v>0.995</v>
       </c>
-      <c r="F39" s="64"/>
-      <c r="G39" s="127" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-    </row>
-    <row r="41" spans="2:15">
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-    </row>
-    <row r="42" spans="2:15">
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-    </row>
-    <row r="43" spans="2:15">
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-    </row>
-    <row r="45" spans="2:15">
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-    </row>
-    <row r="46" spans="2:15">
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-    </row>
-    <row r="47" spans="2:15">
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-    </row>
-    <row r="48" spans="2:15">
-      <c r="B48" s="63"/>
-      <c r="C48" s="64"/>
-      <c r="E48" s="57">
+      <c r="G39" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="55"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="55"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="55"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="55"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="55"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="55"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="55"/>
+      <c r="E46" s="79"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="55"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="55"/>
+      <c r="E48" s="49">
         <v>60</v>
       </c>
-      <c r="F48" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="64"/>
-    </row>
-    <row r="49" spans="2:15">
-      <c r="B49" s="63"/>
-      <c r="C49" s="64"/>
-      <c r="E49" s="57">
+      <c r="F48" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="55"/>
+      <c r="E49" s="49">
         <f>E48*E30*1000</f>
         <v>3000000</v>
       </c>
-      <c r="F49" s="57" t="s">
+      <c r="F49" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="57" t="s">
+      <c r="G49" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-    </row>
-    <row r="50" spans="2:15">
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="55"/>
       <c r="J50"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="64"/>
-    </row>
-    <row r="51" spans="2:15">
-      <c r="B51" s="63"/>
-      <c r="D51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-    </row>
-    <row r="52" spans="2:15">
-      <c r="B52" s="63"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="57">
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="55"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="55"/>
+      <c r="E52" s="49">
         <v>1</v>
       </c>
-      <c r="F52" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="K52" s="64"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-    </row>
-    <row r="53" spans="2:15">
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="57">
+      <c r="F52" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="55"/>
+      <c r="E53" s="49">
         <f>E52*E30*1000</f>
         <v>50000</v>
       </c>
-      <c r="F53" s="57" t="s">
+      <c r="F53" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-    </row>
-    <row r="54" spans="2:15">
-      <c r="B54" s="63"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="57">
+      <c r="G53" s="49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="55"/>
+      <c r="E54" s="49">
         <v>0.5</v>
       </c>
-      <c r="F54" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-    </row>
-    <row r="55" spans="2:15">
-      <c r="B55" s="63"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="57">
+      <c r="F54" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="55"/>
+      <c r="E55" s="49">
         <f>E54*E30*E17</f>
         <v>54750</v>
       </c>
-      <c r="F55" s="57" t="s">
+      <c r="F55" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G55" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64"/>
-      <c r="O55" s="64"/>
-    </row>
-    <row r="56" spans="2:15">
-      <c r="B56" s="63"/>
-      <c r="C56" s="64"/>
-      <c r="E56" s="57">
+      <c r="G55" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="55"/>
+      <c r="E56" s="49">
         <f>E55/E17</f>
         <v>25</v>
       </c>
-      <c r="F56" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-    </row>
-    <row r="57" spans="2:15">
-      <c r="B57" s="63"/>
-      <c r="C57" s="64"/>
-      <c r="E57" s="57">
+      <c r="F56" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="55"/>
+      <c r="E57" s="49">
         <v>15</v>
       </c>
-      <c r="F57" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="G57" s="57" t="s">
+      <c r="F57" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K57" s="64"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="64"/>
-    </row>
-    <row r="58" spans="2:15">
-      <c r="B58" s="63"/>
-      <c r="C58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-    </row>
-    <row r="59" spans="2:15">
-      <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-    </row>
-    <row r="60" spans="2:15">
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="64"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="64"/>
-    </row>
-    <row r="61" spans="2:15">
-      <c r="B61" s="63"/>
-      <c r="C61" s="64"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="64"/>
-      <c r="M61" s="64"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="64"/>
-    </row>
-    <row r="62" spans="2:15">
-      <c r="B62" s="63"/>
-      <c r="C62" s="64"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
-    </row>
-    <row r="63" spans="2:15">
-      <c r="B63" s="63"/>
-      <c r="C63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="64"/>
-      <c r="M63" s="64"/>
-      <c r="N63" s="64"/>
-      <c r="O63" s="64"/>
-    </row>
-    <row r="64" spans="2:15">
-      <c r="B64" s="63"/>
-      <c r="C64" s="64"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="64"/>
-      <c r="M64" s="64"/>
-      <c r="N64" s="64"/>
-      <c r="O64" s="64"/>
-    </row>
-    <row r="65" spans="2:15">
-      <c r="B65" s="63"/>
-      <c r="C65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="64"/>
-      <c r="M65" s="64"/>
-      <c r="N65" s="64"/>
-      <c r="O65" s="64"/>
-    </row>
-    <row r="66" spans="2:15">
-      <c r="B66" s="63"/>
-      <c r="C66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64"/>
-      <c r="M66" s="64"/>
-      <c r="N66" s="64"/>
-      <c r="O66" s="64"/>
-    </row>
-    <row r="67" spans="2:15">
-      <c r="B67" s="63"/>
-      <c r="C67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="64"/>
-    </row>
-    <row r="68" spans="2:15">
-      <c r="B68" s="63"/>
-      <c r="C68" s="64"/>
-      <c r="K68" s="64"/>
-      <c r="L68" s="64"/>
-      <c r="M68" s="64"/>
-      <c r="N68" s="64"/>
-      <c r="O68" s="64"/>
-    </row>
-    <row r="69" spans="2:15">
-      <c r="B69" s="63"/>
-      <c r="C69" s="64"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="64"/>
-      <c r="M69" s="64"/>
-      <c r="N69" s="64"/>
-      <c r="O69" s="64"/>
-    </row>
-    <row r="70" spans="2:15">
-      <c r="B70" s="63"/>
-      <c r="C70" s="64"/>
-      <c r="K70" s="64"/>
-      <c r="L70" s="64"/>
-      <c r="M70" s="64"/>
-      <c r="N70" s="64"/>
-      <c r="O70" s="64"/>
-    </row>
-    <row r="71" spans="2:15">
-      <c r="B71" s="63"/>
-      <c r="N71" s="64"/>
-      <c r="O71" s="64"/>
-    </row>
-    <row r="72" spans="2:15">
-      <c r="B72" s="63"/>
-      <c r="N72" s="64"/>
-      <c r="O72" s="64"/>
-    </row>
-    <row r="73" spans="2:15">
-      <c r="B73" s="63"/>
-      <c r="N73" s="64"/>
-      <c r="O73" s="64"/>
-    </row>
-    <row r="74" spans="2:15">
-      <c r="B74" s="63"/>
-      <c r="C74" s="142" t="s">
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="55"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="55"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="55"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="55"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="55"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="55"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="55"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="55"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="55"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="55"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="55"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="55"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="55"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="55"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="55"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="55"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="55"/>
+      <c r="C74" s="126" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="55"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="55"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="55"/>
+      <c r="E77" s="115"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="55"/>
+      <c r="E78" s="49">
+        <v>50</v>
+      </c>
+      <c r="F78" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="G78" s="49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="55"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="55"/>
+      <c r="F80" s="99"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="55"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="55"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="55"/>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="55"/>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="55"/>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="55"/>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="55"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="55"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="55"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="55"/>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="55"/>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="55"/>
+      <c r="E92" s="100"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="55"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="55"/>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="55"/>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="55"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="55"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="55"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="55"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="55"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="55"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="55"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="55"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="55"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="55"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="55"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="55"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="55"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="55"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="55"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="55"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="55"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="55"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="55"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="55"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="55"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="55"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="55"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="55"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="55"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="55"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="55"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="55"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="55"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="55"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="55"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="55"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="55"/>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" s="55"/>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" s="55"/>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" s="55"/>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" s="55"/>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" s="55"/>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" s="55"/>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" s="55"/>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" s="55"/>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" s="55"/>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" s="55"/>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" s="55"/>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" s="55"/>
+      <c r="C140" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D140" s="49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" s="55"/>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" s="55"/>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" s="55"/>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" s="55"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="114"/>
+      <c r="B145" s="116"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="114"/>
+      <c r="B146" s="116"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="114"/>
+      <c r="B147" s="116"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="114"/>
+      <c r="B148" s="116"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="114"/>
+      <c r="B149" s="116"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="114"/>
+      <c r="B150" s="116"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="114"/>
+      <c r="B151" s="116"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="114"/>
+      <c r="B152" s="116"/>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="114"/>
+      <c r="B153" s="116"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="114"/>
+      <c r="B154" s="116"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="114"/>
+      <c r="B155" s="116"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="114"/>
+      <c r="B156" s="116"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="114"/>
+      <c r="B157" s="116"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="114"/>
+      <c r="B158" s="116"/>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="114"/>
+      <c r="B159" s="116"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="114"/>
+      <c r="B160" s="116"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="114"/>
+      <c r="B161" s="116"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="114"/>
+      <c r="B162" s="116"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="114"/>
+      <c r="B163" s="116"/>
+      <c r="E163" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="N74" s="64"/>
-      <c r="O74" s="64"/>
-    </row>
-    <row r="75" spans="2:15">
-      <c r="B75" s="63"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="N75" s="64"/>
-      <c r="O75" s="64"/>
-    </row>
-    <row r="76" spans="2:15">
-      <c r="B76" s="63"/>
-      <c r="C76" s="64"/>
-      <c r="N76" s="64"/>
-      <c r="O76" s="64"/>
-    </row>
-    <row r="77" spans="2:15">
-      <c r="B77" s="63"/>
-      <c r="E77" s="128"/>
-      <c r="N77" s="64"/>
-      <c r="O77" s="64"/>
-    </row>
-    <row r="78" spans="2:15">
-      <c r="B78" s="63"/>
-      <c r="E78" s="57">
-        <v>50</v>
-      </c>
-      <c r="F78" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="G78" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="N78" s="64"/>
-      <c r="O78" s="64"/>
-    </row>
-    <row r="79" spans="2:15">
-      <c r="B79" s="63"/>
-      <c r="N79" s="64"/>
-      <c r="O79" s="64"/>
-    </row>
-    <row r="80" spans="2:15">
-      <c r="B80" s="63"/>
-      <c r="F80" s="111"/>
-      <c r="N80" s="64"/>
-      <c r="O80" s="64"/>
-    </row>
-    <row r="81" spans="2:15">
-      <c r="B81" s="63"/>
-      <c r="N81" s="64"/>
-      <c r="O81" s="64"/>
-    </row>
-    <row r="82" spans="2:15">
-      <c r="B82" s="63"/>
-      <c r="N82" s="64"/>
-      <c r="O82" s="64"/>
-    </row>
-    <row r="83" spans="2:15">
-      <c r="B83" s="63"/>
-      <c r="N83" s="64"/>
-      <c r="O83" s="64"/>
-    </row>
-    <row r="84" spans="2:15">
-      <c r="B84" s="63"/>
-    </row>
-    <row r="85" spans="2:15">
-      <c r="B85" s="63"/>
-    </row>
-    <row r="86" spans="2:15">
-      <c r="B86" s="63"/>
-    </row>
-    <row r="87" spans="2:15">
-      <c r="B87" s="63"/>
-      <c r="C87" s="64"/>
-    </row>
-    <row r="88" spans="2:15">
-      <c r="B88" s="63"/>
-      <c r="C88" s="64"/>
-    </row>
-    <row r="89" spans="2:15">
-      <c r="B89" s="63"/>
-      <c r="C89" s="64"/>
-    </row>
-    <row r="90" spans="2:15">
-      <c r="B90" s="63"/>
-      <c r="C90" s="64"/>
-    </row>
-    <row r="91" spans="2:15">
-      <c r="B91" s="63"/>
-      <c r="C91" s="64"/>
-    </row>
-    <row r="92" spans="2:15">
-      <c r="B92" s="63"/>
-      <c r="C92" s="64"/>
-      <c r="E92" s="112"/>
-    </row>
-    <row r="93" spans="2:15">
-      <c r="B93" s="63"/>
-    </row>
-    <row r="94" spans="2:15">
-      <c r="B94" s="63"/>
-    </row>
-    <row r="95" spans="2:15">
-      <c r="B95" s="63"/>
-    </row>
-    <row r="96" spans="2:15">
-      <c r="B96" s="63"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="63"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="63"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="63"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="63"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="63"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="63"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="63"/>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="63"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="63"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="63"/>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="63"/>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="63"/>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="63"/>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="63"/>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="63"/>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="63"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="63"/>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="63"/>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="63"/>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="63"/>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="63"/>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="63"/>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="63"/>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="63"/>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="63"/>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="63"/>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="63"/>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="63"/>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="63"/>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="63"/>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="63"/>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="63"/>
-    </row>
-    <row r="129" spans="2:4">
-      <c r="B129" s="63"/>
-    </row>
-    <row r="130" spans="2:4">
-      <c r="B130" s="63"/>
-    </row>
-    <row r="131" spans="2:4">
-      <c r="B131" s="63"/>
-    </row>
-    <row r="132" spans="2:4">
-      <c r="B132" s="63"/>
-    </row>
-    <row r="133" spans="2:4">
-      <c r="B133" s="63"/>
-    </row>
-    <row r="134" spans="2:4">
-      <c r="B134" s="63"/>
-    </row>
-    <row r="135" spans="2:4">
-      <c r="B135" s="63"/>
-    </row>
-    <row r="136" spans="2:4">
-      <c r="B136" s="63"/>
-    </row>
-    <row r="137" spans="2:4">
-      <c r="B137" s="63"/>
-    </row>
-    <row r="138" spans="2:4">
-      <c r="B138" s="63"/>
-    </row>
-    <row r="139" spans="2:4">
-      <c r="B139" s="63"/>
-    </row>
-    <row r="140" spans="2:4">
-      <c r="B140" s="63"/>
-      <c r="C140" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="D140" s="57">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4">
-      <c r="B141" s="63"/>
-    </row>
-    <row r="142" spans="2:4">
-      <c r="B142" s="63"/>
-    </row>
-    <row r="143" spans="2:4">
-      <c r="B143" s="63"/>
-    </row>
-    <row r="144" spans="2:4">
-      <c r="B144" s="63"/>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="127"/>
-      <c r="B145" s="129"/>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="127"/>
-      <c r="B146" s="129"/>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="127"/>
-      <c r="B147" s="129"/>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="127"/>
-      <c r="B148" s="129"/>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="127"/>
-      <c r="B149" s="129"/>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="127"/>
-      <c r="B150" s="129"/>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="127"/>
-      <c r="B151" s="129"/>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="127"/>
-      <c r="B152" s="129"/>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="127"/>
-      <c r="B153" s="129"/>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="127"/>
-      <c r="B154" s="129"/>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="127"/>
-      <c r="B155" s="129"/>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="127"/>
-      <c r="B156" s="129"/>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="127"/>
-      <c r="B157" s="129"/>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="127"/>
-      <c r="B158" s="129"/>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="127"/>
-      <c r="B159" s="129"/>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="127"/>
-      <c r="B160" s="129"/>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="127"/>
-      <c r="B161" s="129"/>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="127"/>
-      <c r="B162" s="129"/>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="127"/>
-      <c r="B163" s="129"/>
-      <c r="E163" s="57" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="127"/>
-      <c r="B164" s="129"/>
-      <c r="E164" s="57" t="s">
-        <v>134</v>
+      <c r="A164" s="114"/>
+      <c r="B164" s="116"/>
+      <c r="E164" s="49" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="127"/>
-      <c r="B165" s="129"/>
-      <c r="E165" s="57" t="s">
-        <v>117</v>
+      <c r="A165" s="114"/>
+      <c r="B165" s="116"/>
+      <c r="E165" s="49" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="127"/>
-      <c r="B166" s="129"/>
+      <c r="A166" s="114"/>
+      <c r="B166" s="116"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="127"/>
-      <c r="B167" s="129"/>
+      <c r="A167" s="114"/>
+      <c r="B167" s="116"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="127"/>
-      <c r="B168" s="129"/>
+      <c r="A168" s="114"/>
+      <c r="B168" s="116"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="127"/>
-      <c r="B169" s="129"/>
+      <c r="A169" s="114"/>
+      <c r="B169" s="116"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="127"/>
-      <c r="B170" s="129"/>
+      <c r="A170" s="114"/>
+      <c r="B170" s="116"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="127"/>
-      <c r="B171" s="129"/>
+      <c r="A171" s="114"/>
+      <c r="B171" s="116"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="127"/>
-      <c r="B172" s="129"/>
+      <c r="A172" s="114"/>
+      <c r="B172" s="116"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="127"/>
-      <c r="B173" s="129"/>
+      <c r="A173" s="114"/>
+      <c r="B173" s="116"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="127"/>
-      <c r="B174" s="129"/>
+      <c r="A174" s="114"/>
+      <c r="B174" s="116"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="127"/>
-      <c r="B175" s="129"/>
+      <c r="A175" s="114"/>
+      <c r="B175" s="116"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="127"/>
-      <c r="B176" s="129"/>
+      <c r="A176" s="114"/>
+      <c r="B176" s="116"/>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="127"/>
-      <c r="B177" s="129"/>
+      <c r="A177" s="114"/>
+      <c r="B177" s="116"/>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="127"/>
-      <c r="B178" s="129"/>
+      <c r="A178" s="114"/>
+      <c r="B178" s="116"/>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="127"/>
-      <c r="B179" s="129"/>
+      <c r="A179" s="114"/>
+      <c r="B179" s="116"/>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="127"/>
-      <c r="B180" s="129"/>
+      <c r="A180" s="114"/>
+      <c r="B180" s="116"/>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="127"/>
-      <c r="B181" s="129"/>
+      <c r="A181" s="114"/>
+      <c r="B181" s="116"/>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="127"/>
-      <c r="B182" s="129"/>
+      <c r="A182" s="114"/>
+      <c r="B182" s="116"/>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="127"/>
-      <c r="B183" s="129"/>
-      <c r="C183" s="57" t="s">
-        <v>127</v>
+      <c r="A183" s="114"/>
+      <c r="B183" s="116"/>
+      <c r="C183" s="49" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="127"/>
-      <c r="B184" s="129"/>
+      <c r="A184" s="114"/>
+      <c r="B184" s="116"/>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="127"/>
-      <c r="B185" s="129"/>
-      <c r="E185" s="57">
+      <c r="A185" s="114"/>
+      <c r="B185" s="116"/>
+      <c r="E185" s="49">
         <f>E78</f>
         <v>50</v>
       </c>
-      <c r="F185" s="57" t="s">
+      <c r="F185" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G185" s="57" t="s">
+      <c r="G185" s="49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="114"/>
+      <c r="B186" s="116"/>
+      <c r="E186" s="49">
+        <v>1</v>
+      </c>
+      <c r="F186" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="G186" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="I186" s="49" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="127"/>
-      <c r="B186" s="129"/>
-      <c r="E186" s="57">
-        <v>1</v>
-      </c>
-      <c r="F186" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="G186" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="I186" s="57" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="127"/>
-      <c r="B187" s="129"/>
-      <c r="E187" s="57">
+      <c r="A187" s="114"/>
+      <c r="B187" s="116"/>
+      <c r="E187" s="49">
         <f>E185*E186</f>
         <v>50</v>
       </c>
-      <c r="F187" s="57" t="s">
+      <c r="F187" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="G187" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="G187" s="57" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="127"/>
-      <c r="B188" s="129"/>
+      <c r="A188" s="114"/>
+      <c r="B188" s="116"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="127"/>
-      <c r="B189" s="129"/>
+      <c r="A189" s="114"/>
+      <c r="B189" s="116"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="127"/>
-      <c r="B190" s="129"/>
+      <c r="A190" s="114"/>
+      <c r="B190" s="116"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="127"/>
-      <c r="B191" s="129"/>
+      <c r="A191" s="114"/>
+      <c r="B191" s="116"/>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="127"/>
-      <c r="B192" s="129"/>
+      <c r="A192" s="114"/>
+      <c r="B192" s="116"/>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="127"/>
-      <c r="B193" s="129"/>
+      <c r="A193" s="114"/>
+      <c r="B193" s="116"/>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="127"/>
-      <c r="B194" s="129"/>
+      <c r="A194" s="114"/>
+      <c r="B194" s="116"/>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="127"/>
-      <c r="B195" s="129"/>
+      <c r="A195" s="114"/>
+      <c r="B195" s="116"/>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="127"/>
-      <c r="B196" s="129"/>
+      <c r="A196" s="114"/>
+      <c r="B196" s="116"/>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="127"/>
-      <c r="B197" s="129"/>
+      <c r="A197" s="114"/>
+      <c r="B197" s="116"/>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="127"/>
-      <c r="B198" s="129"/>
+      <c r="A198" s="114"/>
+      <c r="B198" s="116"/>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="127"/>
-      <c r="B199" s="129"/>
+      <c r="A199" s="114"/>
+      <c r="B199" s="116"/>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="127"/>
-      <c r="B200" s="129"/>
+      <c r="A200" s="114"/>
+      <c r="B200" s="116"/>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="127"/>
-      <c r="B201" s="129"/>
+      <c r="A201" s="114"/>
+      <c r="B201" s="116"/>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="127"/>
-      <c r="B202" s="129"/>
+      <c r="A202" s="114"/>
+      <c r="B202" s="116"/>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="127"/>
-      <c r="B203" s="129"/>
+      <c r="A203" s="114"/>
+      <c r="B203" s="116"/>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="127"/>
-      <c r="B204" s="129"/>
+      <c r="A204" s="114"/>
+      <c r="B204" s="116"/>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="127"/>
-      <c r="B205" s="129"/>
+      <c r="A205" s="114"/>
+      <c r="B205" s="116"/>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="127"/>
-      <c r="B206" s="129"/>
+      <c r="A206" s="114"/>
+      <c r="B206" s="116"/>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="127"/>
-      <c r="B207" s="129"/>
+      <c r="A207" s="114"/>
+      <c r="B207" s="116"/>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="127"/>
-      <c r="B208" s="129"/>
+      <c r="A208" s="114"/>
+      <c r="B208" s="116"/>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="127"/>
-      <c r="B209" s="129"/>
+      <c r="A209" s="114"/>
+      <c r="B209" s="116"/>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="127"/>
-      <c r="B210" s="129"/>
+      <c r="A210" s="114"/>
+      <c r="B210" s="116"/>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="127"/>
-      <c r="B211" s="129"/>
+      <c r="A211" s="114"/>
+      <c r="B211" s="116"/>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="127"/>
-      <c r="B212" s="129"/>
+      <c r="A212" s="114"/>
+      <c r="B212" s="116"/>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="127"/>
-      <c r="B213" s="129"/>
+      <c r="A213" s="114"/>
+      <c r="B213" s="116"/>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="127"/>
-      <c r="B214" s="129"/>
+      <c r="A214" s="114"/>
+      <c r="B214" s="116"/>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="127"/>
-      <c r="B215" s="129"/>
+      <c r="A215" s="114"/>
+      <c r="B215" s="116"/>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="127"/>
-      <c r="B216" s="129"/>
+      <c r="A216" s="114"/>
+      <c r="B216" s="116"/>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="127"/>
-      <c r="B217" s="129"/>
+      <c r="A217" s="114"/>
+      <c r="B217" s="116"/>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="127"/>
-      <c r="B218" s="129"/>
+      <c r="A218" s="114"/>
+      <c r="B218" s="116"/>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="127"/>
-      <c r="B219" s="129"/>
+      <c r="A219" s="114"/>
+      <c r="B219" s="116"/>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="127"/>
-      <c r="B220" s="129"/>
+      <c r="A220" s="114"/>
+      <c r="B220" s="116"/>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="127"/>
-      <c r="B221" s="129"/>
+      <c r="A221" s="114"/>
+      <c r="B221" s="116"/>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="127"/>
-      <c r="B222" s="129"/>
+      <c r="A222" s="114"/>
+      <c r="B222" s="116"/>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="127"/>
-      <c r="B223" s="129"/>
+      <c r="A223" s="114"/>
+      <c r="B223" s="116"/>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="127"/>
-      <c r="B224" s="129"/>
+      <c r="A224" s="114"/>
+      <c r="B224" s="116"/>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="127"/>
-      <c r="B225" s="129"/>
+      <c r="A225" s="114"/>
+      <c r="B225" s="116"/>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="127"/>
-      <c r="B226" s="129"/>
+      <c r="A226" s="114"/>
+      <c r="B226" s="116"/>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="127"/>
-      <c r="B227" s="129"/>
+      <c r="A227" s="114"/>
+      <c r="B227" s="116"/>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="127"/>
-      <c r="B228" s="129"/>
+      <c r="A228" s="114"/>
+      <c r="B228" s="116"/>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="127"/>
-      <c r="B229" s="129"/>
+      <c r="A229" s="114"/>
+      <c r="B229" s="116"/>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="127"/>
-      <c r="B230" s="129"/>
+      <c r="A230" s="114"/>
+      <c r="B230" s="116"/>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="127"/>
-      <c r="B231" s="129"/>
+      <c r="A231" s="114"/>
+      <c r="B231" s="116"/>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="127"/>
-      <c r="B232" s="129"/>
+      <c r="A232" s="114"/>
+      <c r="B232" s="116"/>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="127"/>
-      <c r="B233" s="129"/>
+      <c r="A233" s="114"/>
+      <c r="B233" s="116"/>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="127"/>
-      <c r="B234" s="129"/>
+      <c r="A234" s="114"/>
+      <c r="B234" s="116"/>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="127"/>
-      <c r="B235" s="129"/>
+      <c r="A235" s="114"/>
+      <c r="B235" s="116"/>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="127"/>
-      <c r="B236" s="129"/>
+      <c r="A236" s="114"/>
+      <c r="B236" s="116"/>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="127"/>
-      <c r="B237" s="129"/>
+      <c r="A237" s="114"/>
+      <c r="B237" s="116"/>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="127"/>
-      <c r="B238" s="129"/>
+      <c r="A238" s="114"/>
+      <c r="B238" s="116"/>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="127"/>
-      <c r="B239" s="129"/>
+      <c r="A239" s="114"/>
+      <c r="B239" s="116"/>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="127"/>
-      <c r="B240" s="129"/>
+      <c r="A240" s="114"/>
+      <c r="B240" s="116"/>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="127"/>
-      <c r="B241" s="129"/>
+      <c r="A241" s="114"/>
+      <c r="B241" s="116"/>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="127"/>
-      <c r="B242" s="129"/>
+      <c r="A242" s="114"/>
+      <c r="B242" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
